--- a/500all/speech_level/speeches_CHRG-114hhrg20825.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20825.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittee on the Environment and the Subcommittee on Oversight will come to order.    Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time.    Welcome to today's hearing titled ``An Overview of the Nation's Weather Satellite Program and Policies.''    I recognize myself for five minutes for an opening statement and then to the Ranking Member as well.    We've had a number of hearings about all kinds of issues related to satellites from the current programs of record to commercial satellites. We've heard testimony about JPSS and GOES-R already once this year, and this is a second opportunity to do so.    Some of the concerns that I have are the delay of the GOES-R satellite program from March of 2016 to October of 2016. Obviously this is a concern for the weather of our country, being able to predict and forecast accurate and timely weather events, critically important infrastructure for the data that feeds our numerical weather models, which keep all of our constituents safe.    So this is a good hearing. We have heard testimony before. Going along with the delay in GOES-R, we have an extension of the life expectancy of some of our current programs, and we have questions about if that is realistic or not. We have seen now NOAA-16 break apart in space over Thanksgiving, and that gives a lot of us concern about maybe it didn't just break apart on itself. I know some have suggested that but something had to occur, whether it was a malfunction on board the satellite, even though it was beyond its lifetime, or it could have been hit by debris. Whatever the case is, it broke apart and now is contributing to more orbital debris, which is a concern.    That being the case, you think about orbital debris, you think about the Suomi NPP satellite that also is coming to the end of its useful life and it's not shielded. It wasn't designed for long-term service. It was designed more for testing and validation. So when you look at the SUOMI-NPP satellite, is it being pelted by debris? Is it at risk? And of course, would that create, you know, a gap as it relates to our polar orbiting satellite programs and the challenges that we've had with JPSS to date as well.    We'd also like to discuss NOAA's Commercial Space Policy, which is a wonderful start to, I think, great opportunities for the future to provide more resiliency and redundancy, disaggregated and distributed architectures that the commercial industry can provide to augment our numerical weather models with data coming from the private sector, and some of the issue that are going on there. And finally, the issue with debris mitigation, I think are critically important not only to NOAA but to national security space and civil space as well, and commercial space.    So I'm looking forward to this hearing, looking forward to the testimony of our witnesses.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much, and thank you, Chairman Bridenstine and Chairman Loudermilk, for holding today's hearing. I'd also like to thank and welcome our witnesses this morning.    As has been stated by our Chairman, the goal of the Committee's oversight in this area is simple. It's to ensure that both the Joint Polar Satellite System (JPSS) and the Geostationary Operational Environmental Satellites (GOES) are technically sound and operationally robust when they're completed, which we all hope is as soon as possible. As satellites that have a critical role in weather forecasting, losing coverage of either system could have serious, perhaps catastrophic effects on our public safety.    Unfortunately, NOAA's development of both of these weather satellite systems has had a rocky path. They've been plagued by cost growth, poor schedule performance, technical issues and management challenges.    During the Subcommittee's hearing on these projects in February it seemed that JPSS was the more troubled of the two but now it looks like GOES-R has now been delayed by more than six months until, as the Chairman said, the new October 2016 launch date, which may still be at risk.    These ongoing delays on these programs increase the cost of the satellites, distort NOAA's budget, and limit the agency's resources for weather forecasting and important research into weather, oceans, and climate science.    We know that satellite acquisition is no easy task and these problems are not unique to NOAA. They routinely occur in the development of satellite programs by the Department of Defense, the U.S. intelligence community, NASA. But that isn't an excuse, and I believe that NOAA recognizes that this is an unsustainable model, and that going forward the agency will need to find a more efficient and more reliable means of putting its instruments into orbit.    Shifting back to the work conducted by Mr. Powner and his team at GAO, it's my understanding that since 2012 they've issued 23 recommendations to NOAA that they believe will strengthen the agency's acquisition efforts and improve their contingency planning, but to date, just six of these recommendations have been implemented. So I'm interested in learning more today about the remaining recommendations and NOAA's progress in addressing them.    Additionally, I think it's important for Congress and this Committee to have a clear understanding of NOAA's policies and planning as it relates to these critical satellites. NOAA's decision to change the expected lifespan of its weather satellites needs to be transparent and clearly documented. NOAA's satellites also provide the data necessary for our weather models and the critical forecasting and warning products and services provided by the National Weather Service. In fact, the capabilities of the National Weather Service are directly dependent on the quality and success of our satellite programs as well as a highly skilled workforce.    So while it's not the focus of today's hearing, I want to mention some important work GAO is conducting on behalf of my colleagues, Ms. Bonamici, Mr. Lipinski, and me. Specifically, we've been concerned about the number of vacancies that currently exist in the National Weather Service's field offices, and we've asked GAO to review present and future staffing levels in order to support the agency's efforts to evolve its operational components and to increase its decision support services. Ensuring an adequate workforce is also central to achieving NOAA's public safety mission. We can't afford a weather satellite gap, and it is essential that NOAA keep these programs on track. I know these are both technically difficult and critically important issues that NOAA needs to address.    So thank you, Mr. Chairman and Mr. Chairman. I look forward to today's hearing.</t>
   </si>
   <si>
@@ -76,27 +70,18 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman. Good morning to our witnesses, and thank you for being here. Mr. Chairman, thank you for holding this hearing.    Today we'll be hearing from GAO and NOAA regarding the polar orbiting and geostationary satellite programs. The JPSS and GOES-R programs that NOAA maintains have experienced setbacks. Today we intend to learn what has changed since our last hearing back in February of this year.    Earlier this year, GAO published a report detailing its concern that the NOAA polar satellite program, JPSS, is facing an unprecedented gap in satellite data. GAO believes that while JPSS remains within its new lifecycle cost estimate and schedule baselines, recent rises in component costs and technical issues during development increase the likelihood of a near-term data gap. Additionally, although NOAA has recently reduced its estimated potential gap from fifteen to only three months, GAO noted that this assessment was based on incomplete data and does not account for the risks posed by space debris to satellite hardware. This is even more concerning given the recent breakup of a retired NOAA satellite in orbit. GAO estimated in its report that a data gap may occur earlier and last longer than NOAA anticipates.    Perhaps even more troubling is the potential data gap facing NOAA's GOES-R program, the geostationary satellite system. Since its inception, the GOES-R program has undergone significant increases in cost and reductions in scope, and as GAO's report indicates, NOAA has yet to reverse or even halt this trend, as we have seen with the most recent delay to the launch, pushing a March 2016 launch date back to October 2016. This means we could be facing a long period without a backup satellite in orbit.    History has shown us that backups are sometimes necessary to reduce risk to public safety and the economy. In 2008 and 2012, the agency was forced to use backup satellites to cover problems with operational satellites, a solution we may once again find ourselves needing.    When talking about the consequences of a gap in weather data, the first thought in the minds of many is of the devastating effects of extreme weather on the ground. However, professional and personal history shows me--allows me to discuss the impact of gap weather data on aviation weather.    As a private pilot, I know the importance of having accurate and timely weather forecasts to assess flying conditions. Pilots require accurate weather data to evaluate conditions on the ground and in the sky throughout the entire flight process, from takeoff to landing. Without accurate data a pilot runs the risk of what we call ``getting behind the plane,'' a general aviation phrase which means that the plane is responding to the conditions and the pilot is responding to the plane, a situation that spells trouble for even the most seasoned pilots.    Experience as a pilot does not exempt someone from getting behind the plane as weather deteriorates, as I have conducted many search-and-rescue missions over the years, even led some of those, and without exception, every missing aircraft that we ended up finding as a result of weather resulted in a fatality. We were basically taking remains home to the families so they can be comforted they were found. Your experience doesn't matter.    Even the most experienced aviators when they get in a weather situation, it can spell disaster, one of those being Scott Crossfield. Scott Crossfield is a pioneer in aviation in America. He was the second to break the sound barrier. We conducted a search-and-rescue mission to find the remains of his plane as it broke up in a thunderstorm over northeast Georgia.    My personal experience as well: once flying to Florida, I had accurate satellite weather data in the cockpit with me which showed thunderstorms coming off the Gulf of Mexico. I was able to accurately determine not only that I should be able to beat the thunderstorm into my destination but also alternate airports to my west that were clear and available. Without that, I could've ended up in a very difficult situation or not made it to my destination. As I was flying in, I also heard of other pilots who didn't have that information with mayday calls being into the weather.    With our reliance on GPS weather data, Mr. Chairman, I'm afraid that without accurate weather, these incidents would be more frequent.    From this perspective, you can see how a gap in weather data, and consequently less accurate forecasts, could negatively affect not only commercial flight safety, but also the $1.5 trillion in total economic activity that the aviation industry contributes to the national economy.    I hope that today's hearing will shed some light on the complex schedule and cost demands facing NOAA's weather satellite programs and that the Subcommittees will walk away better equipped to consider these issues moving forward.    And Mr. Chairman, I know that as an aviator yourself, you understand this as well, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the Chairman, Chairman Loudermilk, for his comments. Certainly, I have been in those situations myself, and I appreciate your testimony on them.    Let me introduce our witnesses. First, our first witness today is Dr. Stephen Volz, Assistant Administrator of National Environmental Satellites, Data and Information Services at NOAA. Dr. Volz has a Ph.D. in experimental condensed matter physics from the University of Illinois at Urbana Champaign, a master's degree in physics from The University of Illinois, and a bachelor's degree in physics from the University of Virginia.    Our second witness today is Mr. David Powner, Director of Information Technology Management Issues at the GAO. Mr. Powner received his bachelor's degree in business administration from the University of Denver and attended the senior execute fellows program at Harvard.    In order to allow time for discussion, please limit your testimony to five minutes. Your entire written statement will be made a part of the record, and we on this Committee have mostly probably already read it.    I now recognize Dr. Volz for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Volz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Volz. Well, good morning, Chairmen Bridenstine and Loudermilk, Ranking Member Beyer, and Members of the Subcommittees. Thank you for the invitation to participate in today's hearing and to discuss the status of NOAA's satellite programs.    As both of you or many of you have mentioned, NOAA provides environmental intelligence in a global way that is timely, accurate, actionable and reliable space-based information to citizens, communities and business as they need to stay safe and to operate efficiently.    The NOAA satellite portfolio provides continuous satellite data that are integral to weather forecasting, and NOAA, working with NASA, conducts essential satellite development to ensure the continuity of this critical service.    Our current operational geostationary and polar-operating satellites provide on a 24/7 basis the space-based weather data required to support NOAA's National Weather Service and as well as the private weather industry and many other users who rely on those services as well.    The geostationary satellites currently in orbit, GOES-East and GOES-West, provide constant monitoring from the Atlantic Ocean, the continental United States, Hawaii, and the Pacific for weather, and they are backed up by our fully functioning spare satellite, GOES-14, situated midway between them ready to ride backup, as was mentioned as the need for in the event of a significant satellite anomaly to either of the others.    We are currently working towards an October 2016 launch for the next-generation geostationary satellite, GOES-R. While we are working diligently towards this date, there are still risks ahead of us to get this new highly capable and complex satellite launched on time. NOAA and NASA are working with contractors to identify and mitigate risks by applying all appropriate resources and expertise to meet this important launch milestone. To that end, we are monitoring the health of our current on-orbit assets to ensure that we maximize their operational utility until the GOES-R series satellites are launched, checked out and placed into operations.    Meanwhile, while that's going on with the flight hardware, the ground system for GOES-R and the user community continue to prepare for the launch and rapid exploitation of the new data stream once it begins.    For the polar-orbiting satellites, the first satellite of the JPSS program, the Suomi NPP satellite, is performing exceptionally as NOAA's primary afternoon polar satellite. Four years into its operating mission, the high-resolution sounds of the Suomi NPP, ATMS and CrIS instruments are continuously providing essential observations, feeding the National Weather Service's numerical weather prediction models and ultimately the weather forecasts we all depend on. The Suomi NPP VIIRS imagery has brought much improved observations of sea ice in Alaska and Arctic waters as well as new and much more sensitive VIIRS low-light nighttime cloud imagery for that region as well. Weather observations from polar orbiting satellites are particularly important in Alaska and the polar regions where geostationary satellites cannot effectively observe.    No matter than in March 2017, the second satellite of the JPSS's program, JPSS-1, will be launched joining Suomi NPP in providing global coverage and increasing the data flow supporting the NWS and the user community.    JPPS-2 continues in development managed expertly by NASA and NOAA team and is proceeding on schedule for a late 2021 launch as well.    NOAA's observing system includes beyond these two satellite systems, the Jason-2 and DSCOVR satellites, and soon will include Jason-3, the COSMIC-2 constellation and radio occultation measurements, and hopefully the Cooperative Data and Resure Services mission, CDARS. These smaller and more focused missions provide essential environmental observations augmenting and complementing the polar and geostationary platforms.    In all of these systems, NOAA draws extensively on the expertise of academia and private industry, relies heavily on productive partnerships with other U.S. agencies including specifically the U.S. Air Force and NASA, and on international agencies including EUMETSAT and CNES, and the National Space Organization of Taiwan to meet our observing needs. We also are expanding our approach to access to space through the commercially hosted payload approach for CDARS to find more efficient methods of access to space.    In closing, since joining NOAA just over a year ago, I have continued to work the started by my predecessors to steadily rebuild the robustness of the Nation's operational weather satellite constellations. Our current polar-orbiting and geostationary satellites are aging but are generally healthy as they continue to provide the observations enabling those weather and environmental monitoring missions. We are making steady progress to launch the next generation of polar and geostationary satellites in the coming year to continue and improve the reliability and quality of these Earth observations. NOAA works closely with NASA, our acquisition agent, and with our industry and academic partners to implement proven development processes so that we can meet our critical mission milestones.    Decisions continue to be made by individuals, governments, and businesses based on the weather forecast. Space-based observations are vital, the ability of NWS and commercial weather providers to produce and delivery these forecasts, and NOAA values the longstanding interest of the Committee in our satellite programs, and we appreciate the Congressional support to ensure these critical national weather programs achieve the robust state that is needed to support the Nation's weather enterprise.    Thank you, and I look forward to the conversation.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you for your testimony, Dr. Volz. You were right on the five minute mark, which is what we expect from our NOAA and former NASA folks, so thank you for that.    Mr. Powner, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Powner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Powner. Chairman Bridenstine, Loudermilk, Ranking Member Beyer, and Members of the Subcommittees, earlier this year, we testified on the GOES-R and JPSS satellite acquisitions. At that time we expressed concerns about the GOES-R March 2016 launch date and potential gaps in satellite coverage.    As we have heard, the GOES-R launch date has been delayed again. I will provide updates on both acquisitions by displaying three graphics, which highlight key launch dates and expected lifespans of these satellites, many of which have been recently extended.    On the first graphic, it displays the three GOES-R satellites that are currently in space. The first bar is GOES-13, which covers the eastern half of the United States. The third bar is GOES-15, which covers the western half. The middle bar is GOES-14, which is your on-orbit spare. NOAA's policy is to have an on-orbit spare if something goes wrong with one of the operational satellites.    The red bars here represent an extension to the lifespan of the operational satellites from the last time we testified. When asked what this was based on, we were given a 2005 document supporting the lifespan extension. So a key question is why NOAA did not disclose this lifespan extension sooner.    I'll add that in NOAA's 2016 budget submission, these red extensions were not included on their fly-out charts. This is an area where NOAA needs to be more open and transparent with the Congress, especially since longer lifespans affect the timing of future launches and the annual funding of these satellites, as I'll get into on the next chart.    But before we leave this chart, I'd like to comment on, there have been problems with GOES-13 that have been mentioned, and the backup has been moved into operation several times. Also, currently a key sensor on GOES-13 has not been working since November 20th.    Moving to the next chart, what this next chart does, the first three bars basically just replicate what you just saw with the extended lifespan. The fourth bar represents GOES-R and the delay in the launch of GOES-R to October 2016. I have three comments on this chart.    First, the GOES-R bar, the fourth bar down, the delay occurred due to technical problems in about two years of extremely poor schedule performance. The program was losing about 10 days per month for a 24-month period. Mr. Chairman, in our opinion, NOAA should have more clearly disclosed the poor schedule performance to this Committee.    My second point is the potential gap in backup coverage. The gold vertical bar here represents this projected gap. GOES-13, even with the lifespan extension, reaches the end of its useful life about mid-2016, and 2014 and 2015 are your operational satellites. So there is no backup in orbit from mid-2016 until GOES-R launches and performs a six month checkout through about March or April of 2017. And if the GOES-R October 2016 launch date is not met, this gap in backup coverage becomes even greater.    My third and final point on this chart is the final two bears, GOES-S and T. We agree that both GOES-R and JPSS need to have robust constellations to ensure continuity of coverage, and this is exactly why we placed the potential gaps in weather satellites on GAO's high-risk list in January 2013. But extending these lifespans requires a relook at the timing of out-year satellites.    With the third chart, I'd like to move the discussion from GOES-R to JPSS, the polar satellites. As you can see here, the red arrow represents a four-year lifespan extension on NPP, the current operational polar satellite in the afternoon orbit. We question whether this should extent to 2020, given NOAA's latest analysis supporting this. However, the good news here with JPSS is there is an annual review that is used to update the polar satellite lifespans, unlike the GOES programs.    Regarding the J-1 launch, the middle bar here, of March 2017, we are more concerned about this date than we have been prior. Key reasons are continued delays in delivery of the key instrument ATMS, continued delays in the ground system, and continued problems with a component on the spacecraft.    And finally, on the chart, we think there is increased risk with J-2 since we have a new spacecraft contractor. On GOES, the story was that the performance will greatly improve with the delivery of the second GOES because there was a fair amount of learning with the first. It seems odd that that same logic wouldn't be applied to the second JPSS satellite.    In conclusion, NOAA needs to be more transparent on risks and satellite lifespans. There needs to be a consistent policy to evaluate satellite lifespans, not just for JPSS but also for GOES, and we still have major concerns with the backup, with the gap in the backup for GOES-R, and also between NPP and JPSS-1, but after GOES-R and JPSS-1 launch, given NOAA's recent extensions, we're really not concerned about gaps after that point. In fact, Congress might have opportunities to reduce annual expenditures on these programs in upcoming years.    I look forward to your questions.</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the Chairman.    For Dr. Volz, we understand you've been doing this job now for just over a year. These challenges have been developing over time, and we know you're working really hard to make sure that these issues are addressed. From our perspective, I'll just be real quick before I hand it over to Mr. Bera, from our perspective, we learn that there's going to be a delay in launch for GOES-R, and at the same time we learn that we're going to extend the life of another satellite. We're going to predict that it's going to last longer, and it looks like it could be intentional that we're just extending is to that we can get to the next launch, and I'm not saying that's what happened. I'm saying that as Mr. Powner said, if there was more transparency, if we knew that well ahead of time, it wouldn't have appeared this way. So just--I'm sharing my sentiments on that. So transparency helps us, and we want to help you.    So I turn it over to my friend from California, Mr. Bera.</t>
   </si>
   <si>
-    <t>Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman, and I thank the Ranking Member.    You know, when I think about weather forecasting, thinking about this with my district, state, and much of the American West in mind because we're going through a devastating drought right now, and it's the fourth year of historic and unprecedented drought. When I think about my district, you know, Folsom Lake, which supplies drinking water for, you know, close to half a million people in my region, it's a historic low right now. So just having the predictability of weather is going to be incredibly important because again, in California and in Sacramento, we have this dual risk. We have years where we have incredibly high flood risk and then obviously now we're living through this drought. So better forecasting allows us to better manage a precious asset: water.    And you know, that's why I share the concern of my colleagues here. If there is a gap in that ability, that does put us at risk, it puts the Nation at risk and, you know, it really does make it difficult to manage.    I'm going to shift a little bit. If in fact there is a gap, we know there's commercial weather satellites out there that are providing commercial data. Is that true, Dr. Volz?</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and gentlemen, thank you for being here with us this morning.    Dr. Volz, how many of the viable U.S. commercial providers for satellite data do you intend to bring under contract in the next three to five years?</t>
   </si>
   <si>
@@ -322,9 +301,6 @@
     <t xml:space="preserve">    Chairman Bridenstine. I now recognize the weather guru from California, Mr. Perlmutter, but I would warn the witnesses that his----</t>
   </si>
   <si>
-    <t>Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Colorado. Colorado.</t>
   </si>
   <si>
@@ -370,9 +346,6 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the gentleman from Colorado.    I recognize the gentleman from Texas, Mr. Babin.</t>
   </si>
   <si>
-    <t>Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman, and thank you to our witnesses.    Dr. Volz, if the government has weather or climate missions that you could catch a ride on a commercial satellite to the benefit of all parties, it would seem to me to be a cost-effective and sustainable option. Has NOAA taken advantage of these hosted payload options for weather or climate missions? If so, why or why not?</t>
   </si>
   <si>
@@ -424,9 +397,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman.    Dr. Volz, in your opinion, how likely is GOES to meet its launch date of October of 2016?</t>
   </si>
   <si>
@@ -497,9 +467,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. That's important for those of us on this Committee to understand.    I now recognize the gentleman from Alabama, Mr. Palmer, for five minutes.</t>
-  </si>
-  <si>
-    <t>Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman. I'd like to thank the witnesses.    Mr. Powner, you mentioned that NOAA needs a clear policy on what analysis should drive the adjustment of satellite lifespans. Can you expand on that and----</t>
@@ -1069,11 +1036,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1095,11 +1060,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1119,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1147,11 +1108,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1171,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1199,11 +1156,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1225,11 +1180,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1251,11 +1204,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1277,11 +1228,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1303,11 +1252,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1329,11 +1276,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1355,11 +1300,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1381,11 +1324,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1407,11 +1348,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1433,11 +1372,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1459,11 +1396,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1485,11 +1420,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1511,11 +1444,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1537,11 +1468,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1563,11 +1492,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1587,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1615,11 +1540,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1639,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1667,11 +1588,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1691,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1719,11 +1636,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1743,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1771,11 +1684,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1795,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1823,11 +1732,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1847,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1875,11 +1780,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1899,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1927,11 +1828,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1951,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1979,11 +1876,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2003,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2031,11 +1924,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2055,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2083,11 +1972,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2107,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2135,11 +2020,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2159,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2187,11 +2068,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2211,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2239,11 +2116,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2265,11 +2140,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2291,11 +2164,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2317,11 +2188,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2343,11 +2212,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2369,11 +2236,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>65</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2395,11 +2260,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2421,11 +2284,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2447,11 +2308,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2473,11 +2332,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2499,11 +2356,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2525,11 +2380,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>65</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2551,11 +2404,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2577,11 +2428,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>65</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2603,11 +2452,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2629,11 +2476,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>65</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2655,11 +2500,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2681,11 +2524,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>65</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2707,11 +2548,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2731,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2759,11 +2596,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2783,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2811,11 +2644,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2835,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2863,11 +2692,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2887,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>85</v>
-      </c>
-      <c r="H72" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2915,11 +2740,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2939,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2967,11 +2788,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2991,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3019,11 +2836,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3043,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3071,11 +2884,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3095,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3123,11 +2932,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3149,11 +2956,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>102</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3175,11 +2980,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3201,11 +3004,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>102</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3227,11 +3028,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3253,11 +3052,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>102</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3279,11 +3076,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3305,11 +3100,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>102</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3331,11 +3124,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3357,11 +3148,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>102</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3383,11 +3172,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3409,11 +3196,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>102</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3435,11 +3220,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3461,11 +3244,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3487,11 +3268,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>102</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3513,11 +3292,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3539,11 +3316,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>118</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3565,11 +3340,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3591,11 +3364,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>118</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3617,11 +3388,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3643,11 +3412,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>118</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3669,11 +3436,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3695,11 +3460,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>118</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3721,11 +3484,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3747,11 +3508,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>118</v>
-      </c>
-      <c r="H105" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3773,11 +3532,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3799,11 +3556,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>118</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3825,11 +3580,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3851,11 +3604,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>118</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3877,11 +3628,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3903,11 +3652,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>118</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3929,11 +3676,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3953,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3981,11 +3724,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4005,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4033,11 +3772,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>26</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4057,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4085,11 +3820,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4109,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4137,11 +3868,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4161,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
+        <v>126</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
         <v>135</v>
-      </c>
-      <c r="G121" t="s">
-        <v>136</v>
-      </c>
-      <c r="H121" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4189,11 +3916,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4213,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4241,11 +3964,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>23</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4265,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4293,11 +4012,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4317,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4345,11 +4060,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4369,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4397,11 +4108,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4421,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
-      </c>
-      <c r="G131" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4449,11 +4156,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4473,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>135</v>
-      </c>
-      <c r="G133" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4501,11 +4204,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4527,11 +4228,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>26</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4553,11 +4252,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4579,11 +4276,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>161</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4605,11 +4300,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4631,11 +4324,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>161</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4657,11 +4348,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>26</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4683,11 +4372,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>161</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4709,11 +4396,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4735,11 +4420,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>161</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4761,11 +4444,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4787,11 +4468,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>161</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4813,11 +4492,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>26</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4839,11 +4516,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4865,11 +4540,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>26</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4891,11 +4564,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>161</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4917,11 +4588,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4943,11 +4612,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4969,11 +4636,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4995,11 +4660,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5021,11 +4684,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5047,11 +4708,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5073,11 +4732,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5099,11 +4756,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5125,11 +4780,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5151,11 +4804,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5177,11 +4828,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5203,11 +4852,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5229,11 +4876,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5255,11 +4900,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>23</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5281,11 +4924,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5307,11 +4948,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5333,11 +4972,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5359,11 +4996,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>23</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5385,11 +5020,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5411,11 +5044,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>23</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5437,11 +5068,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5461,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5489,11 +5116,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5513,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5541,11 +5164,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>23</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5565,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5593,11 +5212,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>23</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5617,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5645,11 +5260,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5669,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5697,11 +5308,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>26</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5721,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5749,11 +5356,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5773,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5801,11 +5404,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5827,11 +5428,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>161</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5853,11 +5452,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5879,11 +5476,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>161</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5905,11 +5500,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>23</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5931,11 +5524,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>161</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5957,11 +5548,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>23</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5983,11 +5572,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>161</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6009,11 +5596,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>23</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6035,11 +5620,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>161</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6061,11 +5644,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>26</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6087,11 +5668,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>161</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20825.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20825.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittee on the Environment and the Subcommittee on Oversight will come to order.    Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time.    Welcome to today's hearing titled ``An Overview of the Nation's Weather Satellite Program and Policies.''    I recognize myself for five minutes for an opening statement and then to the Ranking Member as well.    We've had a number of hearings about all kinds of issues related to satellites from the current programs of record to commercial satellites. We've heard testimony about JPSS and GOES-R already once this year, and this is a second opportunity to do so.    Some of the concerns that I have are the delay of the GOES-R satellite program from March of 2016 to October of 2016. Obviously this is a concern for the weather of our country, being able to predict and forecast accurate and timely weather events, critically important infrastructure for the data that feeds our numerical weather models, which keep all of our constituents safe.    So this is a good hearing. We have heard testimony before. Going along with the delay in GOES-R, we have an extension of the life expectancy of some of our current programs, and we have questions about if that is realistic or not. We have seen now NOAA-16 break apart in space over Thanksgiving, and that gives a lot of us concern about maybe it didn't just break apart on itself. I know some have suggested that but something had to occur, whether it was a malfunction on board the satellite, even though it was beyond its lifetime, or it could have been hit by debris. Whatever the case is, it broke apart and now is contributing to more orbital debris, which is a concern.    That being the case, you think about orbital debris, you think about the Suomi NPP satellite that also is coming to the end of its useful life and it's not shielded. It wasn't designed for long-term service. It was designed more for testing and validation. So when you look at the SUOMI-NPP satellite, is it being pelted by debris? Is it at risk? And of course, would that create, you know, a gap as it relates to our polar orbiting satellite programs and the challenges that we've had with JPSS to date as well.    We'd also like to discuss NOAA's Commercial Space Policy, which is a wonderful start to, I think, great opportunities for the future to provide more resiliency and redundancy, disaggregated and distributed architectures that the commercial industry can provide to augment our numerical weather models with data coming from the private sector, and some of the issue that are going on there. And finally, the issue with debris mitigation, I think are critically important not only to NOAA but to national security space and civil space as well, and commercial space.    So I'm looking forward to this hearing, looking forward to the testimony of our witnesses.</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much, and thank you, Chairman Bridenstine and Chairman Loudermilk, for holding today's hearing. I'd also like to thank and welcome our witnesses this morning.    As has been stated by our Chairman, the goal of the Committee's oversight in this area is simple. It's to ensure that both the Joint Polar Satellite System (JPSS) and the Geostationary Operational Environmental Satellites (GOES) are technically sound and operationally robust when they're completed, which we all hope is as soon as possible. As satellites that have a critical role in weather forecasting, losing coverage of either system could have serious, perhaps catastrophic effects on our public safety.    Unfortunately, NOAA's development of both of these weather satellite systems has had a rocky path. They've been plagued by cost growth, poor schedule performance, technical issues and management challenges.    During the Subcommittee's hearing on these projects in February it seemed that JPSS was the more troubled of the two but now it looks like GOES-R has now been delayed by more than six months until, as the Chairman said, the new October 2016 launch date, which may still be at risk.    These ongoing delays on these programs increase the cost of the satellites, distort NOAA's budget, and limit the agency's resources for weather forecasting and important research into weather, oceans, and climate science.    We know that satellite acquisition is no easy task and these problems are not unique to NOAA. They routinely occur in the development of satellite programs by the Department of Defense, the U.S. intelligence community, NASA. But that isn't an excuse, and I believe that NOAA recognizes that this is an unsustainable model, and that going forward the agency will need to find a more efficient and more reliable means of putting its instruments into orbit.    Shifting back to the work conducted by Mr. Powner and his team at GAO, it's my understanding that since 2012 they've issued 23 recommendations to NOAA that they believe will strengthen the agency's acquisition efforts and improve their contingency planning, but to date, just six of these recommendations have been implemented. So I'm interested in learning more today about the remaining recommendations and NOAA's progress in addressing them.    Additionally, I think it's important for Congress and this Committee to have a clear understanding of NOAA's policies and planning as it relates to these critical satellites. NOAA's decision to change the expected lifespan of its weather satellites needs to be transparent and clearly documented. NOAA's satellites also provide the data necessary for our weather models and the critical forecasting and warning products and services provided by the National Weather Service. In fact, the capabilities of the National Weather Service are directly dependent on the quality and success of our satellite programs as well as a highly skilled workforce.    So while it's not the focus of today's hearing, I want to mention some important work GAO is conducting on behalf of my colleagues, Ms. Bonamici, Mr. Lipinski, and me. Specifically, we've been concerned about the number of vacancies that currently exist in the National Weather Service's field offices, and we've asked GAO to review present and future staffing levels in order to support the agency's efforts to evolve its operational components and to increase its decision support services. Ensuring an adequate workforce is also central to achieving NOAA's public safety mission. We can't afford a weather satellite gap, and it is essential that NOAA keep these programs on track. I know these are both technically difficult and critically important issues that NOAA needs to address.    So thank you, Mr. Chairman and Mr. Chairman. I look forward to today's hearing.</t>
   </si>
   <si>
@@ -70,18 +82,30 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman. Good morning to our witnesses, and thank you for being here. Mr. Chairman, thank you for holding this hearing.    Today we'll be hearing from GAO and NOAA regarding the polar orbiting and geostationary satellite programs. The JPSS and GOES-R programs that NOAA maintains have experienced setbacks. Today we intend to learn what has changed since our last hearing back in February of this year.    Earlier this year, GAO published a report detailing its concern that the NOAA polar satellite program, JPSS, is facing an unprecedented gap in satellite data. GAO believes that while JPSS remains within its new lifecycle cost estimate and schedule baselines, recent rises in component costs and technical issues during development increase the likelihood of a near-term data gap. Additionally, although NOAA has recently reduced its estimated potential gap from fifteen to only three months, GAO noted that this assessment was based on incomplete data and does not account for the risks posed by space debris to satellite hardware. This is even more concerning given the recent breakup of a retired NOAA satellite in orbit. GAO estimated in its report that a data gap may occur earlier and last longer than NOAA anticipates.    Perhaps even more troubling is the potential data gap facing NOAA's GOES-R program, the geostationary satellite system. Since its inception, the GOES-R program has undergone significant increases in cost and reductions in scope, and as GAO's report indicates, NOAA has yet to reverse or even halt this trend, as we have seen with the most recent delay to the launch, pushing a March 2016 launch date back to October 2016. This means we could be facing a long period without a backup satellite in orbit.    History has shown us that backups are sometimes necessary to reduce risk to public safety and the economy. In 2008 and 2012, the agency was forced to use backup satellites to cover problems with operational satellites, a solution we may once again find ourselves needing.    When talking about the consequences of a gap in weather data, the first thought in the minds of many is of the devastating effects of extreme weather on the ground. However, professional and personal history shows me--allows me to discuss the impact of gap weather data on aviation weather.    As a private pilot, I know the importance of having accurate and timely weather forecasts to assess flying conditions. Pilots require accurate weather data to evaluate conditions on the ground and in the sky throughout the entire flight process, from takeoff to landing. Without accurate data a pilot runs the risk of what we call ``getting behind the plane,'' a general aviation phrase which means that the plane is responding to the conditions and the pilot is responding to the plane, a situation that spells trouble for even the most seasoned pilots.    Experience as a pilot does not exempt someone from getting behind the plane as weather deteriorates, as I have conducted many search-and-rescue missions over the years, even led some of those, and without exception, every missing aircraft that we ended up finding as a result of weather resulted in a fatality. We were basically taking remains home to the families so they can be comforted they were found. Your experience doesn't matter.    Even the most experienced aviators when they get in a weather situation, it can spell disaster, one of those being Scott Crossfield. Scott Crossfield is a pioneer in aviation in America. He was the second to break the sound barrier. We conducted a search-and-rescue mission to find the remains of his plane as it broke up in a thunderstorm over northeast Georgia.    My personal experience as well: once flying to Florida, I had accurate satellite weather data in the cockpit with me which showed thunderstorms coming off the Gulf of Mexico. I was able to accurately determine not only that I should be able to beat the thunderstorm into my destination but also alternate airports to my west that were clear and available. Without that, I could've ended up in a very difficult situation or not made it to my destination. As I was flying in, I also heard of other pilots who didn't have that information with mayday calls being into the weather.    With our reliance on GPS weather data, Mr. Chairman, I'm afraid that without accurate weather, these incidents would be more frequent.    From this perspective, you can see how a gap in weather data, and consequently less accurate forecasts, could negatively affect not only commercial flight safety, but also the $1.5 trillion in total economic activity that the aviation industry contributes to the national economy.    I hope that today's hearing will shed some light on the complex schedule and cost demands facing NOAA's weather satellite programs and that the Subcommittees will walk away better equipped to consider these issues moving forward.    And Mr. Chairman, I know that as an aviator yourself, you understand this as well, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the Chairman, Chairman Loudermilk, for his comments. Certainly, I have been in those situations myself, and I appreciate your testimony on them.    Let me introduce our witnesses. First, our first witness today is Dr. Stephen Volz, Assistant Administrator of National Environmental Satellites, Data and Information Services at NOAA. Dr. Volz has a Ph.D. in experimental condensed matter physics from the University of Illinois at Urbana Champaign, a master's degree in physics from The University of Illinois, and a bachelor's degree in physics from the University of Virginia.    Our second witness today is Mr. David Powner, Director of Information Technology Management Issues at the GAO. Mr. Powner received his bachelor's degree in business administration from the University of Denver and attended the senior execute fellows program at Harvard.    In order to allow time for discussion, please limit your testimony to five minutes. Your entire written statement will be made a part of the record, and we on this Committee have mostly probably already read it.    I now recognize Dr. Volz for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Volz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Volz. Well, good morning, Chairmen Bridenstine and Loudermilk, Ranking Member Beyer, and Members of the Subcommittees. Thank you for the invitation to participate in today's hearing and to discuss the status of NOAA's satellite programs.    As both of you or many of you have mentioned, NOAA provides environmental intelligence in a global way that is timely, accurate, actionable and reliable space-based information to citizens, communities and business as they need to stay safe and to operate efficiently.    The NOAA satellite portfolio provides continuous satellite data that are integral to weather forecasting, and NOAA, working with NASA, conducts essential satellite development to ensure the continuity of this critical service.    Our current operational geostationary and polar-operating satellites provide on a 24/7 basis the space-based weather data required to support NOAA's National Weather Service and as well as the private weather industry and many other users who rely on those services as well.    The geostationary satellites currently in orbit, GOES-East and GOES-West, provide constant monitoring from the Atlantic Ocean, the continental United States, Hawaii, and the Pacific for weather, and they are backed up by our fully functioning spare satellite, GOES-14, situated midway between them ready to ride backup, as was mentioned as the need for in the event of a significant satellite anomaly to either of the others.    We are currently working towards an October 2016 launch for the next-generation geostationary satellite, GOES-R. While we are working diligently towards this date, there are still risks ahead of us to get this new highly capable and complex satellite launched on time. NOAA and NASA are working with contractors to identify and mitigate risks by applying all appropriate resources and expertise to meet this important launch milestone. To that end, we are monitoring the health of our current on-orbit assets to ensure that we maximize their operational utility until the GOES-R series satellites are launched, checked out and placed into operations.    Meanwhile, while that's going on with the flight hardware, the ground system for GOES-R and the user community continue to prepare for the launch and rapid exploitation of the new data stream once it begins.    For the polar-orbiting satellites, the first satellite of the JPSS program, the Suomi NPP satellite, is performing exceptionally as NOAA's primary afternoon polar satellite. Four years into its operating mission, the high-resolution sounds of the Suomi NPP, ATMS and CrIS instruments are continuously providing essential observations, feeding the National Weather Service's numerical weather prediction models and ultimately the weather forecasts we all depend on. The Suomi NPP VIIRS imagery has brought much improved observations of sea ice in Alaska and Arctic waters as well as new and much more sensitive VIIRS low-light nighttime cloud imagery for that region as well. Weather observations from polar orbiting satellites are particularly important in Alaska and the polar regions where geostationary satellites cannot effectively observe.    No matter than in March 2017, the second satellite of the JPSS's program, JPSS-1, will be launched joining Suomi NPP in providing global coverage and increasing the data flow supporting the NWS and the user community.    JPPS-2 continues in development managed expertly by NASA and NOAA team and is proceeding on schedule for a late 2021 launch as well.    NOAA's observing system includes beyond these two satellite systems, the Jason-2 and DSCOVR satellites, and soon will include Jason-3, the COSMIC-2 constellation and radio occultation measurements, and hopefully the Cooperative Data and Resure Services mission, CDARS. These smaller and more focused missions provide essential environmental observations augmenting and complementing the polar and geostationary platforms.    In all of these systems, NOAA draws extensively on the expertise of academia and private industry, relies heavily on productive partnerships with other U.S. agencies including specifically the U.S. Air Force and NASA, and on international agencies including EUMETSAT and CNES, and the National Space Organization of Taiwan to meet our observing needs. We also are expanding our approach to access to space through the commercially hosted payload approach for CDARS to find more efficient methods of access to space.    In closing, since joining NOAA just over a year ago, I have continued to work the started by my predecessors to steadily rebuild the robustness of the Nation's operational weather satellite constellations. Our current polar-orbiting and geostationary satellites are aging but are generally healthy as they continue to provide the observations enabling those weather and environmental monitoring missions. We are making steady progress to launch the next generation of polar and geostationary satellites in the coming year to continue and improve the reliability and quality of these Earth observations. NOAA works closely with NASA, our acquisition agent, and with our industry and academic partners to implement proven development processes so that we can meet our critical mission milestones.    Decisions continue to be made by individuals, governments, and businesses based on the weather forecast. Space-based observations are vital, the ability of NWS and commercial weather providers to produce and delivery these forecasts, and NOAA values the longstanding interest of the Committee in our satellite programs, and we appreciate the Congressional support to ensure these critical national weather programs achieve the robust state that is needed to support the Nation's weather enterprise.    Thank you, and I look forward to the conversation.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you for your testimony, Dr. Volz. You were right on the five minute mark, which is what we expect from our NOAA and former NASA folks, so thank you for that.    Mr. Powner, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Powner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Powner. Chairman Bridenstine, Loudermilk, Ranking Member Beyer, and Members of the Subcommittees, earlier this year, we testified on the GOES-R and JPSS satellite acquisitions. At that time we expressed concerns about the GOES-R March 2016 launch date and potential gaps in satellite coverage.    As we have heard, the GOES-R launch date has been delayed again. I will provide updates on both acquisitions by displaying three graphics, which highlight key launch dates and expected lifespans of these satellites, many of which have been recently extended.    On the first graphic, it displays the three GOES-R satellites that are currently in space. The first bar is GOES-13, which covers the eastern half of the United States. The third bar is GOES-15, which covers the western half. The middle bar is GOES-14, which is your on-orbit spare. NOAA's policy is to have an on-orbit spare if something goes wrong with one of the operational satellites.    The red bars here represent an extension to the lifespan of the operational satellites from the last time we testified. When asked what this was based on, we were given a 2005 document supporting the lifespan extension. So a key question is why NOAA did not disclose this lifespan extension sooner.    I'll add that in NOAA's 2016 budget submission, these red extensions were not included on their fly-out charts. This is an area where NOAA needs to be more open and transparent with the Congress, especially since longer lifespans affect the timing of future launches and the annual funding of these satellites, as I'll get into on the next chart.    But before we leave this chart, I'd like to comment on, there have been problems with GOES-13 that have been mentioned, and the backup has been moved into operation several times. Also, currently a key sensor on GOES-13 has not been working since November 20th.    Moving to the next chart, what this next chart does, the first three bars basically just replicate what you just saw with the extended lifespan. The fourth bar represents GOES-R and the delay in the launch of GOES-R to October 2016. I have three comments on this chart.    First, the GOES-R bar, the fourth bar down, the delay occurred due to technical problems in about two years of extremely poor schedule performance. The program was losing about 10 days per month for a 24-month period. Mr. Chairman, in our opinion, NOAA should have more clearly disclosed the poor schedule performance to this Committee.    My second point is the potential gap in backup coverage. The gold vertical bar here represents this projected gap. GOES-13, even with the lifespan extension, reaches the end of its useful life about mid-2016, and 2014 and 2015 are your operational satellites. So there is no backup in orbit from mid-2016 until GOES-R launches and performs a six month checkout through about March or April of 2017. And if the GOES-R October 2016 launch date is not met, this gap in backup coverage becomes even greater.    My third and final point on this chart is the final two bears, GOES-S and T. We agree that both GOES-R and JPSS need to have robust constellations to ensure continuity of coverage, and this is exactly why we placed the potential gaps in weather satellites on GAO's high-risk list in January 2013. But extending these lifespans requires a relook at the timing of out-year satellites.    With the third chart, I'd like to move the discussion from GOES-R to JPSS, the polar satellites. As you can see here, the red arrow represents a four-year lifespan extension on NPP, the current operational polar satellite in the afternoon orbit. We question whether this should extent to 2020, given NOAA's latest analysis supporting this. However, the good news here with JPSS is there is an annual review that is used to update the polar satellite lifespans, unlike the GOES programs.    Regarding the J-1 launch, the middle bar here, of March 2017, we are more concerned about this date than we have been prior. Key reasons are continued delays in delivery of the key instrument ATMS, continued delays in the ground system, and continued problems with a component on the spacecraft.    And finally, on the chart, we think there is increased risk with J-2 since we have a new spacecraft contractor. On GOES, the story was that the performance will greatly improve with the delivery of the second GOES because there was a fair amount of learning with the first. It seems odd that that same logic wouldn't be applied to the second JPSS satellite.    In conclusion, NOAA needs to be more transparent on risks and satellite lifespans. There needs to be a consistent policy to evaluate satellite lifespans, not just for JPSS but also for GOES, and we still have major concerns with the backup, with the gap in the backup for GOES-R, and also between NPP and JPSS-1, but after GOES-R and JPSS-1 launch, given NOAA's recent extensions, we're really not concerned about gaps after that point. In fact, Congress might have opportunities to reduce annual expenditures on these programs in upcoming years.    I look forward to your questions.</t>
   </si>
   <si>
@@ -196,6 +220,9 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the Chairman.    For Dr. Volz, we understand you've been doing this job now for just over a year. These challenges have been developing over time, and we know you're working really hard to make sure that these issues are addressed. From our perspective, I'll just be real quick before I hand it over to Mr. Bera, from our perspective, we learn that there's going to be a delay in launch for GOES-R, and at the same time we learn that we're going to extend the life of another satellite. We're going to predict that it's going to last longer, and it looks like it could be intentional that we're just extending is to that we can get to the next launch, and I'm not saying that's what happened. I'm saying that as Mr. Powner said, if there was more transparency, if we knew that well ahead of time, it wouldn't have appeared this way. So just--I'm sharing my sentiments on that. So transparency helps us, and we want to help you.    So I turn it over to my friend from California, Mr. Bera.</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman, and I thank the Ranking Member.    You know, when I think about weather forecasting, thinking about this with my district, state, and much of the American West in mind because we're going through a devastating drought right now, and it's the fourth year of historic and unprecedented drought. When I think about my district, you know, Folsom Lake, which supplies drinking water for, you know, close to half a million people in my region, it's a historic low right now. So just having the predictability of weather is going to be incredibly important because again, in California and in Sacramento, we have this dual risk. We have years where we have incredibly high flood risk and then obviously now we're living through this drought. So better forecasting allows us to better manage a precious asset: water.    And you know, that's why I share the concern of my colleagues here. If there is a gap in that ability, that does put us at risk, it puts the Nation at risk and, you know, it really does make it difficult to manage.    I'm going to shift a little bit. If in fact there is a gap, we know there's commercial weather satellites out there that are providing commercial data. Is that true, Dr. Volz?</t>
   </si>
   <si>
@@ -253,6 +280,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and gentlemen, thank you for being here with us this morning.    Dr. Volz, how many of the viable U.S. commercial providers for satellite data do you intend to bring under contract in the next three to five years?</t>
   </si>
   <si>
@@ -301,6 +334,9 @@
     <t xml:space="preserve">    Chairman Bridenstine. I now recognize the weather guru from California, Mr. Perlmutter, but I would warn the witnesses that his----</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Colorado. Colorado.</t>
   </si>
   <si>
@@ -346,6 +382,9 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the gentleman from Colorado.    I recognize the gentleman from Texas, Mr. Babin.</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman, and thank you to our witnesses.    Dr. Volz, if the government has weather or climate missions that you could catch a ride on a commercial satellite to the benefit of all parties, it would seem to me to be a cost-effective and sustainable option. Has NOAA taken advantage of these hosted payload options for weather or climate missions? If so, why or why not?</t>
   </si>
   <si>
@@ -397,6 +436,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman.    Dr. Volz, in your opinion, how likely is GOES to meet its launch date of October of 2016?</t>
   </si>
   <si>
@@ -467,6 +512,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. That's important for those of us on this Committee to understand.    I now recognize the gentleman from Alabama, Mr. Palmer, for five minutes.</t>
+  </si>
+  <si>
+    <t>Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman. I'd like to thank the witnesses.    Mr. Powner, you mentioned that NOAA needs a clear policy on what analysis should drive the adjustment of satellite lifespans. Can you expand on that and----</t>
@@ -986,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1042,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,4661 +1064,5328 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
       <c r="H76" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G78" t="s">
+        <v>88</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s">
+        <v>88</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>106</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>106</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>122</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>122</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>122</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>122</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>122</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>122</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G113" t="s">
+        <v>140</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G115" t="s">
+        <v>140</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>126</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G117" t="s">
+        <v>140</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>126</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G119" t="s">
+        <v>140</v>
+      </c>
       <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>126</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G121" t="s">
+        <v>140</v>
+      </c>
       <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>126</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G123" t="s">
+        <v>140</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G125" t="s">
+        <v>140</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>126</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G127" t="s">
+        <v>140</v>
+      </c>
       <c r="H127" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>126</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G129" t="s">
+        <v>140</v>
+      </c>
       <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>126</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G131" t="s">
+        <v>140</v>
+      </c>
       <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>126</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G133" t="s">
+        <v>140</v>
+      </c>
       <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>166</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>166</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>166</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>26</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>166</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>26</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>166</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>166</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>26</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>26</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>26</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>26</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>26</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>26</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>26</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>26</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
       <c r="H171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I171" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>26</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
       <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>26</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
       <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I175" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>26</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
       <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I177" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>26</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
       <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
       <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>26</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
       <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>166</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>166</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>26</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>166</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>26</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>166</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>26</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>166</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>29</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>207</v>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>166</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20825.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20825.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Beyer</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>412624</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Loudermilk</t>
@@ -1034,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,7 +1051,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,5325 +1076,5604 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>68</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>68</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>109</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>109</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>106</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>109</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>122</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>125</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>122</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>122</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>29</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>122</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>125</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>32</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>122</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>125</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>122</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>125</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>122</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>125</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>122</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>125</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G115" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I115" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>32</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G117" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G121" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G123" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G125" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H125" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G127" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>32</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H129" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I129" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>26</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G131" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H131" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G133" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="H133" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I133" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>166</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>169</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>32</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>166</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>32</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>169</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>29</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>166</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>169</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>26</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>166</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>169</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>29</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>32</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>26</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>29</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>29</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" t="s">
-        <v>166</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>169</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>13</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" t="s">
-        <v>26</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" t="s">
-        <v>26</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>29</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>29</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" t="s">
-        <v>26</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>26</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>29</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" t="s">
-        <v>26</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>29</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>26</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>29</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I171" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" t="s">
-        <v>26</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I173" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I175" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>26</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>29</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H177" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I177" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>29</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J179" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>29</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H181" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J181" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>26</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>29</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H183" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="s">
-        <v>166</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>169</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" t="s">
-        <v>166</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>169</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" t="s">
-        <v>26</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>29</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>166</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>169</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" t="s">
-        <v>26</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" t="s">
-        <v>166</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>169</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
-        <v>26</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>29</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="s">
-        <v>166</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>169</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" t="s">
-        <v>29</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>32</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>166</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>223</v>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>169</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
